--- a/data/trans_bre/P19C02-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P19C02-Provincia-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">

--- a/data/trans_bre/P19C02-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P19C02-Provincia-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -620,7 +620,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,6</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -630,32 +630,32 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,36</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,8</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>8,04%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,05%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,78%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>-7,13; 12,24</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>-5,36; 10,39</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>-9,52; 5,51</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>-19,15; 45,11</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,04; 53,94</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,27; 13,15</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,98</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,9</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,45</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,83</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,79%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,1%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,26%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,95%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,53; 7,84</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,07; 11,13</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,71; 12,31</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,53; 4,51</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,62; 35,68</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,79; 53,12</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,67; 50,42</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,84; 13,88</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,69</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,25</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,2</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,33</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-15,4%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>25,91%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,59%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,17%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,44; 2,83</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,73; 13,34</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,89; 8,9</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,69; 9,79</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,77; 10,42</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,69; 64,14</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,98; 46,62</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,2; 49,55</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,96</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,09</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,15</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,85</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,24%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,96%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,61%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-11,58%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,8; 6,43</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,54; 6,37</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,7; 6,55</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,68; 2,68</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,31; 24,97</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,77; 26,08</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,94; 30,36</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,94; 6,88</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,5</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,53</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,69</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,02</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,97%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,2%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,5%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,18%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,54; 14,23</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,51; 14,67</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,4; 11,49</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,67; 5,89</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,71; 81,71</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,85; 84,23</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,16; 18,52</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,14; 7,05</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,41</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,99</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,21</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,18</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,79%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-13,01%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>35,06%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,05%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,54; 7,65</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,53; 3,89</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,3; 15,74</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,29; 7,86</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,11; 26,14</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,64; 14,92</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,66; 81,63</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,77; 55,53</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,89</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,43</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,76</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,87</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,35%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,04%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,42%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,57%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,07; 4,78</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,07; 10,03</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,26; 7,57</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,0; 26,8</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,45; 20,63</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,57; 40,08</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,58; 25,89</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,21; 61,07</t>
         </is>
       </c>
     </row>
@@ -1320,42 +1320,42 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,89</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,24</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,01</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,32</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,92%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,12%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,91%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,66%</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,5; 9,28</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,14; 1,12</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,34; 4,95</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,2; 21,61</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,72; 34,75</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,28; 3,15</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,24; 9,98</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,02; 45,47</t>
         </is>
       </c>
     </row>
@@ -1420,42 +1420,42 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,49</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,56</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,34</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,23</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,71%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,25%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,71%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,89%</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,9; 3,02</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,86; 4,06</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,25; 5,2</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,24; 9,06</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,44; 11,13</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,69; 14,17</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,69; 15,56</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,49; 19,76</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P19C02-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P19C02-Provincia-trans_bre.xlsx
@@ -625,7 +625,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>1,14</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-1,8</t>
+          <t>-2,63</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -645,7 +645,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,56%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-3,78%</t>
+          <t>-5,47%</t>
         </is>
       </c>
     </row>
@@ -673,7 +673,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,86; 8,78</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-9,52; 5,51</t>
+          <t>-10,78; 5,69</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -693,7 +693,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,2; 40,76</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-18,27; 13,15</t>
+          <t>-20,51; 13,25</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-1,83</t>
+          <t>-2,15</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-4,95%</t>
+          <t>-5,71%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-8,53; 4,51</t>
+          <t>-8,96; 4,29</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-19,84; 13,88</t>
+          <t>-20,71; 12,99</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>3,33</t>
+          <t>3,4</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>14,17%</t>
+          <t>14,43%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,69; 9,79</t>
+          <t>-2,71; 9,86</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-10,2; 49,55</t>
+          <t>-10,2; 49,89</t>
         </is>
       </c>
     </row>
@@ -925,7 +925,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,09</t>
+          <t>0,88</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-5,85</t>
+          <t>-13,07</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -945,7 +945,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>3,96%</t>
+          <t>3,0%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-11,58%</t>
+          <t>-25,99%</t>
         </is>
       </c>
     </row>
@@ -973,7 +973,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-4,54; 6,37</t>
+          <t>-6,58; 8,18</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-14,68; 2,68</t>
+          <t>-29,74; -2,36</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -993,7 +993,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-14,77; 26,08</t>
+          <t>-19,64; 31,73</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-25,94; 6,88</t>
+          <t>-53,52; -5,47</t>
         </is>
       </c>
     </row>
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,02</t>
+          <t>0,96</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>1,18%</t>
+          <t>1,1%</t>
         </is>
       </c>
     </row>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,67; 5,89</t>
+          <t>-4,62; 5,86</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-5,14; 7,05</t>
+          <t>-5,12; 6,99</t>
         </is>
       </c>
     </row>
@@ -1135,7 +1135,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>2,18</t>
+          <t>2,13</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>12,05%</t>
+          <t>11,78%</t>
         </is>
       </c>
     </row>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-4,29; 7,86</t>
+          <t>-4,42; 7,74</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-20,77; 55,53</t>
+          <t>-20,96; 54,87</t>
         </is>
       </c>
     </row>
@@ -1235,7 +1235,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>6,87</t>
+          <t>12,54</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1255,7 +1255,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>14,57%</t>
+          <t>26,61%</t>
         </is>
       </c>
     </row>
@@ -1283,7 +1283,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,0; 26,8</t>
+          <t>-2,88; 36,47</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-6,21; 61,07</t>
+          <t>-5,87; 84,94</t>
         </is>
       </c>
     </row>
@@ -1335,7 +1335,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>9,32</t>
+          <t>22,53</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1355,7 +1355,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>15,66%</t>
+          <t>48,68%</t>
         </is>
       </c>
     </row>
@@ -1383,7 +1383,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>3,2; 21,61</t>
+          <t>4,02; 48,65</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1403,7 +1403,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>5,02; 45,47</t>
+          <t>6,17; 235,6</t>
         </is>
       </c>
     </row>
@@ -1435,7 +1435,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>3,23</t>
+          <t>6,25</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1455,7 +1455,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>6,89%</t>
+          <t>14,35%</t>
         </is>
       </c>
     </row>
@@ -1483,7 +1483,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,24; 9,06</t>
+          <t>0,01; 21,75</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1503,7 +1503,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>0,49; 19,76</t>
+          <t>0,06; 63,7</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P19C02-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P19C02-Provincia-trans_bre.xlsx
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,13; 12,24</t>
+          <t>-7,39; 12,64</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-6,86; 8,78</t>
+          <t>-6,78; 8,88</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,36; 10,39</t>
+          <t>-5,65; 10,91</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-10,78; 5,69</t>
+          <t>-11,34; 6,23</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-19,15; 45,11</t>
+          <t>-19,93; 46,42</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-24,2; 40,76</t>
+          <t>-23,06; 42,58</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-20,04; 53,94</t>
+          <t>-20,71; 57,73</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-20,51; 13,25</t>
+          <t>-21,55; 14,0</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-4,53; 7,84</t>
+          <t>-5,18; 6,84</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,07; 11,13</t>
+          <t>-0,88; 12,04</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,71; 12,31</t>
+          <t>-1,56; 11,49</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-8,96; 4,29</t>
+          <t>-9,3; 5,01</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-15,62; 35,68</t>
+          <t>-17,73; 31,24</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-4,79; 53,12</t>
+          <t>-3,52; 57,06</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-5,67; 50,42</t>
+          <t>-5,22; 46,7</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-20,71; 12,99</t>
+          <t>-21,37; 15,86</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-12,44; 2,83</t>
+          <t>-12,51; 3,68</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 13,34</t>
+          <t>-0,93; 12,8</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,89; 8,9</t>
+          <t>-4,51; 8,86</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,71; 9,86</t>
+          <t>-3,26; 9,33</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-36,77; 10,42</t>
+          <t>-35,5; 14,54</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-2,69; 64,14</t>
+          <t>-3,34; 61,78</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-18,98; 46,62</t>
+          <t>-17,54; 45,24</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-10,2; 49,89</t>
+          <t>-11,87; 46,64</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-8,8; 6,43</t>
+          <t>-8,89; 6,49</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-6,58; 8,18</t>
+          <t>-6,63; 9,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-7,7; 6,55</t>
+          <t>-7,13; 6,29</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-29,74; -2,36</t>
+          <t>-30,13; -0,71</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-26,31; 24,97</t>
+          <t>-26,1; 25,91</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-19,64; 31,73</t>
+          <t>-19,78; 35,84</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-26,94; 30,36</t>
+          <t>-24,89; 29,19</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-53,52; -5,47</t>
+          <t>-56,73; -2,15</t>
         </is>
       </c>
     </row>
@@ -1068,49 +1068,49 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,54; 14,23</t>
+          <t>-4,9; 12,1</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,51; 14,67</t>
+          <t>-3,93; 14,63</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-10,4; 11,49</t>
+          <t>-9,57; 12,22</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,62; 5,86</t>
+          <t>-4,21; 6,35</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-19,71; 81,71</t>
+          <t>-21,06; 73,68</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-12,85; 84,23</t>
+          <t>-14,78; 79,22</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-14,16; 18,52</t>
+          <t>-13,1; 19,68</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-5,12; 6,99</t>
+          <t>-4,63; 7,61</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1168,49 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-11,54; 7,65</t>
+          <t>-11,72; 6,53</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-12,53; 3,89</t>
+          <t>-11,69; 4,71</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-0,3; 15,74</t>
+          <t>0,18; 16,8</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-4,42; 7,74</t>
+          <t>-4,16; 8,22</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-29,11; 26,14</t>
+          <t>-29,77; 21,77</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-35,64; 14,92</t>
+          <t>-33,97; 17,86</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-1,66; 81,63</t>
+          <t>0,74; 85,14</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-20,96; 54,87</t>
+          <t>-20,16; 56,65</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-7,07; 4,78</t>
+          <t>-6,64; 4,56</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,07; 10,03</t>
+          <t>-1,02; 9,94</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-5,26; 7,57</t>
+          <t>-4,46; 8,55</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,88; 36,47</t>
+          <t>-3,03; 36,0</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-23,45; 20,63</t>
+          <t>-22,4; 19,2</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-3,57; 40,08</t>
+          <t>-3,71; 38,93</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-14,58; 25,89</t>
+          <t>-12,42; 29,22</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-5,87; 84,94</t>
+          <t>-6,09; 84,63</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-1,5; 9,28</t>
+          <t>-1,64; 9,53</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-10,14; 1,12</t>
+          <t>-10,0; 1,23</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-6,34; 4,95</t>
+          <t>-7,23; 4,36</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>4,02; 48,65</t>
+          <t>3,84; 50,26</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-4,72; 34,75</t>
+          <t>-4,78; 35,43</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-22,28; 3,15</t>
+          <t>-22,22; 3,22</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-11,24; 9,98</t>
+          <t>-12,92; 8,71</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>6,17; 235,6</t>
+          <t>6,05; 277,91</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-1,9; 3,02</t>
+          <t>-1,81; 3,19</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 4,06</t>
+          <t>-0,8; 4,1</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 5,2</t>
+          <t>-0,39; 5,01</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,01; 21,75</t>
+          <t>-0,11; 18,45</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-6,44; 11,13</t>
+          <t>-6,03; 11,65</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-2,69; 14,17</t>
+          <t>-2,65; 14,36</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 15,56</t>
+          <t>-1,09; 14,8</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>0,06; 63,7</t>
+          <t>-0,2; 48,32</t>
         </is>
       </c>
     </row>
